--- a/sputnik/personal/ee/61ee.xlsx
+++ b/sputnik/personal/ee/61ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +256,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,6 +291,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -465,17 +467,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
@@ -489,7 +491,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51.75" customHeight="1">
+    <row r="1" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -516,7 +518,7 @@
       </c>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>43815</v>
       </c>
@@ -533,7 +535,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -548,7 +550,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43850</v>
       </c>
@@ -578,7 +580,7 @@
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -601,7 +603,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1">
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43892</v>
       </c>
@@ -631,7 +633,7 @@
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -654,35 +656,86 @@
       <c r="H7" s="11"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43938</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
+        <v>1000</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>4490</v>
       </c>
       <c r="G8" s="11">
-        <f>SUM(G4:G7)</f>
-        <v>12694.150000000001</v>
+        <f>SUM(F8,F9)</f>
+        <v>5741.45</v>
       </c>
       <c r="H8" s="11">
-        <f>SUM(H4:H7)</f>
-        <v>12694.15</v>
+        <v>5741.45</v>
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20415</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="3"/>
+        <v>1251.45</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="11"/>
       <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(G4:G9)</f>
+        <v>18435.600000000002</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H4:H9)</f>
+        <v>18435.599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -692,12 +745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -706,12 +759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/61ee.xlsx
+++ b/sputnik/personal/ee/61ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,7 +471,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -710,32 +710,83 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="10">
+        <v>43984</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42552</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
+        <v>732</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>3286.6800000000003</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>4190.6400000000003</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4190.6400000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20787</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="5"/>
+        <v>903.96</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G12" s="11">
         <f>SUM(G4:G9)</f>
         <v>18435.600000000002</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H12" s="11">
         <f>SUM(H4:H9)</f>
         <v>18435.599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/61ee.xlsx
+++ b/sputnik/personal/ee/61ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -761,32 +761,83 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
+      <c r="A12" s="10">
+        <v>44032</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42720</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
+        <v>168</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>754.32</v>
       </c>
       <c r="G12" s="11">
-        <f>SUM(G4:G9)</f>
-        <v>18435.600000000002</v>
+        <f>SUM(F12,F13)</f>
+        <v>956.0100000000001</v>
       </c>
       <c r="H12" s="11">
-        <f>SUM(H4:H9)</f>
-        <v>18435.599999999999</v>
+        <v>956.01</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20870</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="7"/>
+        <v>201.69000000000003</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(G4:G13)</f>
+        <v>23582.25</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H4:H13)</f>
+        <v>23582.249999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/61ee.xlsx
+++ b/sputnik/personal/ee/61ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -775,15 +775,15 @@
         <v>168</v>
       </c>
       <c r="E12" s="12">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" si="7">D12*E12</f>
-        <v>754.32</v>
+        <v>791.28</v>
       </c>
       <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
-        <v>956.0100000000001</v>
+        <v>1002.93</v>
       </c>
       <c r="H12" s="11">
         <v>956.01</v>
@@ -802,42 +802,96 @@
         <v>83</v>
       </c>
       <c r="E13" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="7"/>
-        <v>201.69000000000003</v>
+        <v>211.64999999999998</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
+      <c r="A14" s="10">
+        <v>44110</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
+        <v>280</v>
+      </c>
+      <c r="E14" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>1318.8</v>
       </c>
       <c r="G14" s="11">
-        <f>SUM(G4:G13)</f>
-        <v>23582.25</v>
+        <f>SUM(F14,F15)</f>
+        <v>1650.3</v>
       </c>
       <c r="H14" s="11">
-        <f>SUM(H4:H13)</f>
-        <v>23582.249999999996</v>
+        <v>1629.73</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>21000</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="9"/>
+        <v>331.5</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(G4:G15)</f>
+        <v>25279.47</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H4:H15)</f>
+        <v>25211.979999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="11">
+        <f>SUM(H16,-G16)</f>
+        <v>-67.490000000005239</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/61ee.xlsx
+++ b/sputnik/personal/ee/61ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -863,34 +863,85 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
+      <c r="A16" s="10">
+        <v>44146</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43601</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="10">SUM(C16,-C14)</f>
+        <v>601</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>2830.71</v>
       </c>
       <c r="G16" s="11">
-        <f>SUM(G4:G15)</f>
-        <v>25279.47</v>
+        <f>SUM(F16,F17)</f>
+        <v>3684.96</v>
       </c>
       <c r="H16" s="11">
-        <f>SUM(H4:H15)</f>
-        <v>25211.979999999996</v>
+        <v>3752.45</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>21335</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="10"/>
+        <v>335</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="11"/>
+        <v>854.24999999999989</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="11">
-        <f>SUM(H16,-G16)</f>
-        <v>-67.490000000005239</v>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(G4:G17)</f>
+        <v>28964.43</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H4:H17)</f>
+        <v>28964.429999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
+        <v>-3.637978807091713E-12</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/61ee.xlsx
+++ b/sputnik/personal/ee/61ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -914,33 +914,84 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="A18" s="10">
+        <v>44186</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44830</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="12">SUM(C18,-C16)</f>
+        <v>1229</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>5788.59</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>7356.84</v>
+      </c>
+      <c r="H18" s="11">
+        <v>7356.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>21950</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="12"/>
+        <v>615</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="13"/>
+        <v>1568.25</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G20" s="11">
         <f>SUM(G4:G17)</f>
         <v>28964.43</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H20" s="11">
         <f>SUM(H4:H17)</f>
         <v>28964.429999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="11">
+        <f>SUM(H20,-G20)</f>
         <v>-3.637978807091713E-12</v>
       </c>
     </row>

--- a/sputnik/personal/ee/61ee.xlsx
+++ b/sputnik/personal/ee/61ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -965,33 +965,135 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="A20" s="10">
+        <v>44229</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>46137</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="14">SUM(C20,-C18)</f>
+        <v>1307</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>6155.97</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>7790.52</v>
+      </c>
+      <c r="H20" s="11">
+        <v>7790.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>22591</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="14"/>
+        <v>641</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="15"/>
+        <v>1634.55</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>44265</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>47310</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="16">SUM(C22,-C20)</f>
+        <v>1173</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
+        <v>5524.83</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>7077.78</v>
+      </c>
+      <c r="H22" s="11">
+        <v>7077.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>23200</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="16"/>
+        <v>609</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="17"/>
+        <v>1552.9499999999998</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G24" s="11">
         <f>SUM(G4:G17)</f>
         <v>28964.43</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H24" s="11">
         <f>SUM(H4:H17)</f>
         <v>28964.429999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="11">
-        <f>SUM(H20,-G20)</f>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
         <v>-3.637978807091713E-12</v>
       </c>
     </row>

--- a/sputnik/personal/ee/61ee.xlsx
+++ b/sputnik/personal/ee/61ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>итого за период</t>
+  </si>
+  <si>
+    <t>пени</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -162,6 +165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1067,34 +1073,107 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5" t="s">
-        <v>10</v>
+      <c r="A24" s="10">
+        <v>44328</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>48575</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="18">SUM(C24,-C22)</f>
+        <v>1265</v>
+      </c>
+      <c r="E24" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="19">D24*E24</f>
+        <v>5958.15</v>
       </c>
       <c r="G24" s="11">
-        <f>SUM(G4:G17)</f>
-        <v>28964.43</v>
+        <f>SUM(F24,F25)</f>
+        <v>7615.65</v>
       </c>
       <c r="H24" s="11">
-        <f>SUM(H4:H17)</f>
-        <v>28964.429999999997</v>
+        <v>7615.65</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>23850</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="18"/>
+        <v>650</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="19"/>
+        <v>1657.4999999999998</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
-        <v>-3.637978807091713E-12</v>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44328</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="2">
+        <v>175.16</v>
+      </c>
+      <c r="H26" s="11">
+        <v>175.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="11">
+        <f>SUM(G4:G26)</f>
+        <v>58980.380000000012</v>
+      </c>
+      <c r="H27" s="11">
+        <f>SUM(H4:H26)</f>
+        <v>58980.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="11">
+        <f>SUM(H27,-G27)</f>
+        <v>-1.4551915228366852E-11</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/61ee.xlsx
+++ b/sputnik/personal/ee/61ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,7 +88,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -157,6 +163,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,106 +522,107 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44328</v>
+        <v>44498</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>48575</v>
-      </c>
-      <c r="D2" s="3">
-        <f>SUM(C2,-C5)</f>
-        <v>1265</v>
-      </c>
-      <c r="E2" s="10">
-        <v>4.71</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>5958.15</v>
-      </c>
-      <c r="G2" s="9">
-        <f>SUM(F2,F3)</f>
-        <v>7615.65</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2">
+        <v>145.05000000000001</v>
       </c>
       <c r="H2" s="9">
-        <v>7615.65</v>
-      </c>
+        <v>145.05000000000001</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="12">
+        <v>44498</v>
+      </c>
       <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>48765</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUM(C3,-C5)</f>
+        <v>190</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F4" si="0">D3*E3</f>
+        <v>942.4</v>
+      </c>
+      <c r="G3" s="9">
+        <f>SUM(F3,F4)</f>
+        <v>1183.5999999999999</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1124.4000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>23850</v>
-      </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C6)</f>
-        <v>650</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="C4" s="3">
+        <v>23940</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(C4,-C6)</f>
+        <v>90</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>1657.4999999999998</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+        <v>241.20000000000002</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>44328</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2">
-        <v>175.16</v>
-      </c>
-      <c r="H4" s="9">
-        <v>175.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>44265</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>47310</v>
+        <v>48575</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>1173</v>
+        <f>SUM(C5,-C8)</f>
+        <v>1265</v>
       </c>
       <c r="E5" s="10">
         <v>4.71</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F6" si="1">D5*E5</f>
-        <v>5524.83</v>
+        <v>5958.15</v>
       </c>
       <c r="G5" s="9">
         <f>SUM(F5,F6)</f>
-        <v>7077.78</v>
+        <v>7615.65</v>
       </c>
       <c r="H5" s="9">
-        <v>7077.78</v>
+        <v>7615.65</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -621,51 +631,124 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>23200</v>
+        <v>23850</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C8)</f>
-        <v>609</v>
+        <f>SUM(C6,-C9)</f>
+        <v>650</v>
       </c>
       <c r="E6" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>1552.9499999999998</v>
+        <v>1657.4999999999998</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>44229</v>
+      <c r="A7" s="11">
+        <v>44328</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2">
+        <v>175.16</v>
+      </c>
+      <c r="H7" s="9">
+        <v>175.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>44265</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>47310</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(C8,-C10)</f>
+        <v>1173</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <v>5524.83</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>7077.78</v>
+      </c>
+      <c r="H8" s="9">
+        <v>7077.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>23200</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(C9,-C11)</f>
+        <v>609</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>1552.9499999999998</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>44229</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
         <v>46137</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C11" s="3">
         <v>22591</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="9"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
